--- a/biology/Médecine/Plexus_hypogastrique_supérieur/Plexus_hypogastrique_supérieur.xlsx
+++ b/biology/Médecine/Plexus_hypogastrique_supérieur/Plexus_hypogastrique_supérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plexus_hypogastrique_sup%C3%A9rieur</t>
+          <t>Plexus_hypogastrique_supérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus hypogastrique supérieur est un plexus nerveux du système nerveux autonome situé au niveau sacré, il est constitué uniquement de fibres sympathiques. Comme tout plexus, on retrouve une organisation de type fibres afférentes, plexus nerveux, fibres efférentes.
 - D'abord les fibres afférentes, on a un contingent sympatiques qui vient des nerfs grands splanchniques qui eux-mêmes naissent des ganglions nerveux sympatiques thoraciques. On retrouve également de nombreux ganglions nerveux sympathiques latéro-aortiques qui afférent vers le PHS. On a également une faible part qui provient des nerfs petits splanchniques. 
